--- a/reportes/controladores_fpdf/template_contabilidad_cts_gen_detalles.xlsx
+++ b/reportes/controladores_fpdf/template_contabilidad_cts_gen_detalles.xlsx
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -503,6 +503,7 @@
     <xf numFmtId="4" fontId="4" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,7 +516,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +918,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F10" sqref="F10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,7 +927,7 @@
     <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
@@ -938,82 +941,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="46" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1100,9 +1103,9 @@
       <c r="C10" s="41"/>
       <c r="D10" s="37"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="38"/>
       <c r="J10" s="37"/>
       <c r="K10" s="38"/>
@@ -1114,9 +1117,9 @@
       <c r="C11" s="41"/>
       <c r="D11" s="37"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="38"/>
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>

--- a/reportes/controladores_fpdf/template_contabilidad_cts_gen_detalles.xlsx
+++ b/reportes/controladores_fpdf/template_contabilidad_cts_gen_detalles.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>FUERZAS ARMADAS DE HONDURAS</t>
   </si>
@@ -91,15 +91,21 @@
     <t>GASTO</t>
   </si>
   <si>
+    <t>CONSOLIDADO GENERAL DETALLADO POR OBJETO DEL GASTO</t>
+  </si>
+  <si>
+    <t>UNIDAD DE UU.SS</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-TOTAL MES DE DICIEMBRE DE 2016
+TOTAL PRESUPUESTO EJECUTADO
 </t>
   </si>
   <si>
-    <t>CONSOLIDADO GENERAL DETALLADO POR OBJETO DEL GASTO</t>
-  </si>
-  <si>
-    <t>UNIDAD DE UU.SS</t>
+    <t>ISVR</t>
+  </si>
+  <si>
+    <t>ISRR</t>
   </si>
 </sst>
 </file>
@@ -504,20 +510,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -598,13 +604,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>234759</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1452803</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
@@ -915,111 +921,123 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H11"/>
+      <selection activeCell="E6" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="27"/>
@@ -1037,9 +1055,11 @@
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>7</v>
@@ -1069,11 +1089,17 @@
       <c r="K8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1096,42 +1122,48 @@
         <v>18</v>
       </c>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="37"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="38"/>
       <c r="J10" s="37"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="37"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="38"/>
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-    </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
+    </row>
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
@@ -1139,12 +1171,14 @@
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="36">
-        <f>SUM(L10:L11)</f>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="36">
+        <f>SUM(N10:N11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1156,9 +1190,11 @@
       <c r="I13" s="12"/>
       <c r="J13" s="14"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1170,9 +1206,11 @@
       <c r="I14" s="12"/>
       <c r="J14" s="14"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1184,9 +1222,11 @@
       <c r="I15" s="12"/>
       <c r="J15" s="14"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1198,9 +1238,11 @@
       <c r="I16" s="12"/>
       <c r="J16" s="14"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1212,9 +1254,11 @@
       <c r="I17" s="12"/>
       <c r="J17" s="14"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1226,9 +1270,11 @@
       <c r="I18" s="12"/>
       <c r="J18" s="14"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1240,27 +1286,29 @@
       <c r="I19" s="12"/>
       <c r="J19" s="14"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="L20" s="17"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L22" s="18"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L24" s="18"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L27" s="18"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N20" s="17"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="N22" s="18"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="N24" s="18"/>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="N27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
     <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D5:L5"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>

--- a/reportes/controladores_fpdf/template_contabilidad_cts_gen_detalles.xlsx
+++ b/reportes/controladores_fpdf/template_contabilidad_cts_gen_detalles.xlsx
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -524,6 +524,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -924,7 +927,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E6" sqref="E1:E1048576"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1137,8 +1140,8 @@
       <c r="I10" s="38"/>
       <c r="J10" s="37"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="39"/>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1153,8 +1156,8 @@
       <c r="I11" s="38"/>
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
       <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" s="10" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
